--- a/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5047638628654711</v>
+        <v>-0.5261379875430198</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.538226311289664</v>
+        <v>-2.748271455482669</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.045277431471937</v>
+        <v>-3.015737980037645</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.998320176078876</v>
+        <v>-2.031569303450718</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1237223004890668</v>
+        <v>-0.1365164317820044</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4456897752119186</v>
+        <v>-0.479011092338286</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5151206553752592</v>
+        <v>-0.4889197637610534</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6449887836795941</v>
+        <v>-0.6551859426051064</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.063589337355452</v>
+        <v>4.216956072947365</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.988062508546296</v>
+        <v>1.739299190278985</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.695794237281536</v>
+        <v>1.576388243841144</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.646784700374731</v>
+        <v>1.634093407313774</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.585261319289705</v>
+        <v>1.74958954671491</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5542243533371715</v>
+        <v>0.5341609975886156</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4989802135379489</v>
+        <v>0.4872445925355628</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.428145732910687</v>
+        <v>2.143822587300185</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.3926431178252587</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.2385347888378228</v>
+        <v>-0.2385347888378231</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1187757400551312</v>
@@ -749,7 +749,7 @@
         <v>0.1081752927180841</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.09053827671250259</v>
+        <v>-0.09053827671250272</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.608577867252979</v>
+        <v>-1.422046877577295</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.616797237041707</v>
+        <v>-0.3998299616686646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.466674475565013</v>
+        <v>-1.296326484495016</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.69482673938531</v>
+        <v>-1.755193220748845</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.241967065770387</v>
+        <v>-0.2092912046148409</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1192024896718355</v>
+        <v>-0.070350434179774</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3216126112397482</v>
+        <v>-0.3022345042694564</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4753100264992034</v>
+        <v>-0.4880312521854497</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.296379307600829</v>
+        <v>3.007122966441146</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.487925931746279</v>
+        <v>3.598302239360308</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.067042227870736</v>
+        <v>2.097745282104068</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.123519098094763</v>
+        <v>0.9572107605377461</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7176658692029143</v>
+        <v>0.6058690047210186</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9350945177891087</v>
+        <v>0.9685737439497978</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7475195882490171</v>
+        <v>0.745832971388573</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6316576381614091</v>
+        <v>0.5057334060775805</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.4730058880879857</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.73462799620218</v>
+        <v>1.734627996202181</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5606703259359472</v>
@@ -849,7 +849,7 @@
         <v>0.07860249750928011</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4896694334401669</v>
+        <v>0.4896694334401671</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3199322220861155</v>
+        <v>-0.3686589041796257</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3681323400792038</v>
+        <v>0.2675758054432377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.770842632908721</v>
+        <v>-2.220571175181637</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6809223497813708</v>
+        <v>-0.4930614845865218</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1022653445952903</v>
+        <v>-0.1262240924713929</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04284861962645366</v>
+        <v>0.02791131104704021</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2551386456570567</v>
+        <v>-0.2965011720723817</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1557035096061586</v>
+        <v>-0.1609696407538713</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.319802060543077</v>
+        <v>4.423414139960898</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.043064509845784</v>
+        <v>6.05504711026066</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.310081443115503</v>
+        <v>2.913136129342874</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.961275810339482</v>
+        <v>4.259398420535497</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.606072730937058</v>
+        <v>1.784792761329186</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.232369215638417</v>
+        <v>1.257679114235614</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7247278918049916</v>
+        <v>0.6138560240972981</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.508487419274439</v>
+        <v>1.634560447211533</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.5532756602426546</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4951182129534409</v>
+        <v>0.4951182129534406</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.087382588779627</v>
@@ -949,7 +949,7 @@
         <v>0.1651419576889175</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.163127425117695</v>
+        <v>0.1631274251176948</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.479558007448888</v>
+        <v>-1.801548749064514</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.5124145410495918</v>
+        <v>-0.5422913392573778</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.045261957752817</v>
+        <v>-1.099283117852317</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.079798768107011</v>
+        <v>-1.001620257463242</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2261306350337378</v>
+        <v>-0.2805127430804932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1205336130197341</v>
+        <v>-0.1272687648190442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.270536431544816</v>
+        <v>-0.2915205038816071</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2697785831743891</v>
+        <v>-0.2633093947396046</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.678930585009733</v>
+        <v>2.520976378744012</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.148071274359569</v>
+        <v>3.315640590684041</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.173202984383492</v>
+        <v>2.257491579020717</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.93988653423323</v>
+        <v>2.148023834980042</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6275878303715036</v>
+        <v>0.5646600493176702</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.001410381509777</v>
+        <v>1.042779445029218</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.853475963578061</v>
+        <v>0.8733849538209534</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.89318436424459</v>
+        <v>1.033022802372789</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.2464205157991034</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5095059800383033</v>
+        <v>0.5095059800383037</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2386359072924679</v>
@@ -1049,7 +1049,7 @@
         <v>0.05730776726274332</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1852433096295868</v>
+        <v>0.185243309629587</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.621320204445923e-05</v>
+        <v>-0.02623053031808758</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2705074617094217</v>
+        <v>0.3640082156425102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.746094253283074</v>
+        <v>-0.8130103926290733</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4063776667792524</v>
+        <v>-0.3673548357545247</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.008340845379911532</v>
+        <v>-0.005378095532949306</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05111397385500767</v>
+        <v>0.06668501467450448</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1503302599650259</v>
+        <v>-0.1690488248569339</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1194876908361326</v>
+        <v>-0.1232091641916623</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.311887060960673</v>
+        <v>2.328904737691338</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.617795539777996</v>
+        <v>2.555223213884602</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.307767446076197</v>
+        <v>1.291291874559352</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.327541736932854</v>
+        <v>1.431299234767051</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5385479988127034</v>
+        <v>0.5656005629362771</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6255019100539317</v>
+        <v>0.5913425364979893</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3436912684266902</v>
+        <v>0.3399508915662005</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5948215373110245</v>
+        <v>0.6297933865722084</v>
       </c>
     </row>
     <row r="19">
